--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Cspg4</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H2">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I2">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J2">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.65998155111518</v>
+        <v>3.296849666666667</v>
       </c>
       <c r="N2">
-        <v>2.65998155111518</v>
+        <v>9.890549</v>
       </c>
       <c r="O2">
-        <v>0.05431120041286462</v>
+        <v>0.06532810080989171</v>
       </c>
       <c r="P2">
-        <v>0.05431120041286462</v>
+        <v>0.08920500662862836</v>
       </c>
       <c r="Q2">
-        <v>3.152682459095909</v>
+        <v>4.563320179768112</v>
       </c>
       <c r="R2">
-        <v>3.152682459095909</v>
+        <v>41.069881617913</v>
       </c>
       <c r="S2">
-        <v>0.004841344253751318</v>
+        <v>0.006628301369276884</v>
       </c>
       <c r="T2">
-        <v>0.004841344253751318</v>
+        <v>0.01190049560080633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H3">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I3">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J3">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.72212420393737</v>
+        <v>5.936479666666667</v>
       </c>
       <c r="N3">
-        <v>5.72212420393737</v>
+        <v>17.809439</v>
       </c>
       <c r="O3">
-        <v>0.1168336804054357</v>
+        <v>0.1176331896601106</v>
       </c>
       <c r="P3">
-        <v>0.1168336804054357</v>
+        <v>0.1606271930958688</v>
       </c>
       <c r="Q3">
-        <v>6.782017190667476</v>
+        <v>8.216952605871445</v>
       </c>
       <c r="R3">
-        <v>6.782017190667476</v>
+        <v>73.952573452843</v>
       </c>
       <c r="S3">
-        <v>0.01041464859873532</v>
+        <v>0.01193526556612309</v>
       </c>
       <c r="T3">
-        <v>0.01041464859873532</v>
+        <v>0.02142865380600498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H4">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I4">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J4">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.213520457607438</v>
+        <v>0.3593903333333333</v>
       </c>
       <c r="N4">
-        <v>0.213520457607438</v>
+        <v>1.078171</v>
       </c>
       <c r="O4">
-        <v>0.004359636389396141</v>
+        <v>0.00712143115395331</v>
       </c>
       <c r="P4">
-        <v>0.004359636389396141</v>
+        <v>0.009724258097482241</v>
       </c>
       <c r="Q4">
-        <v>0.2530702519627938</v>
+        <v>0.4974485725252222</v>
       </c>
       <c r="R4">
-        <v>0.2530702519627938</v>
+        <v>4.477037152727</v>
       </c>
       <c r="S4">
-        <v>0.0003886215075675013</v>
+        <v>0.0007225526424887666</v>
       </c>
       <c r="T4">
-        <v>0.0003886215075675013</v>
+        <v>0.001297275736909747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H5">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I5">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J5">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.3810403109014</v>
+        <v>0.3495983333333333</v>
       </c>
       <c r="N5">
-        <v>40.3810403109014</v>
+        <v>1.048795</v>
       </c>
       <c r="O5">
-        <v>0.8244954827923036</v>
+        <v>0.006927399630587783</v>
       </c>
       <c r="P5">
-        <v>0.8244954827923036</v>
+        <v>0.009459309582013322</v>
       </c>
       <c r="Q5">
-        <v>47.86070693417041</v>
+        <v>0.4838950181572222</v>
       </c>
       <c r="R5">
-        <v>47.86070693417041</v>
+        <v>4.355055163415</v>
       </c>
       <c r="S5">
-        <v>0.07349619300469258</v>
+        <v>0.0007028658707004787</v>
       </c>
       <c r="T5">
-        <v>0.07349619300469258</v>
+        <v>0.001261929978168823</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.36933920805411</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H6">
-        <v>2.36933920805411</v>
+        <v>4.152437</v>
       </c>
       <c r="I6">
-        <v>0.1781977427797884</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J6">
-        <v>0.1781977427797884</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.65998155111518</v>
+        <v>40.5237085</v>
       </c>
       <c r="N6">
-        <v>2.65998155111518</v>
+        <v>81.047417</v>
       </c>
       <c r="O6">
-        <v>0.05431120041286462</v>
+        <v>0.8029898787454566</v>
       </c>
       <c r="P6">
-        <v>0.05431120041286462</v>
+        <v>0.7309842325960072</v>
       </c>
       <c r="Q6">
-        <v>6.302398581757783</v>
+        <v>56.09071551753816</v>
       </c>
       <c r="R6">
-        <v>6.302398581757783</v>
+        <v>336.544293105229</v>
       </c>
       <c r="S6">
-        <v>0.009678133321233186</v>
+        <v>0.08147273297126195</v>
       </c>
       <c r="T6">
-        <v>0.009678133321233186</v>
+        <v>0.0975177848535219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J7">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.72212420393737</v>
+        <v>3.296849666666667</v>
       </c>
       <c r="N7">
-        <v>5.72212420393737</v>
+        <v>9.890549</v>
       </c>
       <c r="O7">
-        <v>0.1168336804054357</v>
+        <v>0.06532810080989171</v>
       </c>
       <c r="P7">
-        <v>0.1168336804054357</v>
+        <v>0.08920500662862836</v>
       </c>
       <c r="Q7">
-        <v>13.55765322974422</v>
+        <v>8.103783958853779</v>
       </c>
       <c r="R7">
-        <v>13.55765322974422</v>
+        <v>72.93405562968401</v>
       </c>
       <c r="S7">
-        <v>0.02081949812890383</v>
+        <v>0.01177088615191671</v>
       </c>
       <c r="T7">
-        <v>0.02081949812890383</v>
+        <v>0.02113352593135924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H8">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I8">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J8">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.213520457607438</v>
+        <v>5.936479666666667</v>
       </c>
       <c r="N8">
-        <v>0.213520457607438</v>
+        <v>17.809439</v>
       </c>
       <c r="O8">
-        <v>0.004359636389396141</v>
+        <v>0.1176331896601106</v>
       </c>
       <c r="P8">
-        <v>0.004359636389396141</v>
+        <v>0.1606271930958688</v>
       </c>
       <c r="Q8">
-        <v>0.5059023919309583</v>
+        <v>14.59209656454711</v>
       </c>
       <c r="R8">
-        <v>0.5059023919309583</v>
+        <v>131.328869080924</v>
       </c>
       <c r="S8">
-        <v>0.0007768773639310189</v>
+        <v>0.02119527226431065</v>
       </c>
       <c r="T8">
-        <v>0.0007768773639310189</v>
+        <v>0.03805413035509563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H9">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I9">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J9">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>40.3810403109014</v>
+        <v>0.3593903333333333</v>
       </c>
       <c r="N9">
-        <v>40.3810403109014</v>
+        <v>1.078171</v>
       </c>
       <c r="O9">
-        <v>0.8244954827923036</v>
+        <v>0.00712143115395331</v>
       </c>
       <c r="P9">
-        <v>0.8244954827923036</v>
+        <v>0.009724258097482241</v>
       </c>
       <c r="Q9">
-        <v>95.67638207063222</v>
+        <v>0.8833953357595556</v>
       </c>
       <c r="R9">
-        <v>95.67638207063222</v>
+        <v>7.950558021836001</v>
       </c>
       <c r="S9">
-        <v>0.1469232339657204</v>
+        <v>0.001283146981355453</v>
       </c>
       <c r="T9">
-        <v>0.1469232339657204</v>
+        <v>0.002303770476941121</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.741557172907219</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H10">
-        <v>9.741557172907219</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I10">
-        <v>0.7326614498554649</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J10">
-        <v>0.7326614498554649</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.65998155111518</v>
+        <v>0.3495983333333333</v>
       </c>
       <c r="N10">
-        <v>2.65998155111518</v>
+        <v>1.048795</v>
       </c>
       <c r="O10">
-        <v>0.05431120041286462</v>
+        <v>0.006927399630587783</v>
       </c>
       <c r="P10">
-        <v>0.05431120041286462</v>
+        <v>0.009459309582013322</v>
       </c>
       <c r="Q10">
-        <v>25.91236235906695</v>
+        <v>0.8593262211355556</v>
       </c>
       <c r="R10">
-        <v>25.91236235906695</v>
+        <v>7.73393599022</v>
       </c>
       <c r="S10">
-        <v>0.03979172283788011</v>
+        <v>0.001248186176692466</v>
       </c>
       <c r="T10">
-        <v>0.03979172283788011</v>
+        <v>0.002241001619746277</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.741557172907219</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H11">
-        <v>9.741557172907219</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I11">
-        <v>0.7326614498554649</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J11">
-        <v>0.7326614498554649</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.72212420393737</v>
+        <v>40.5237085</v>
       </c>
       <c r="N11">
-        <v>5.72212420393737</v>
+        <v>81.047417</v>
       </c>
       <c r="O11">
-        <v>0.1168336804054357</v>
+        <v>0.8029898787454566</v>
       </c>
       <c r="P11">
-        <v>0.1168336804054357</v>
+        <v>0.7309842325960072</v>
       </c>
       <c r="Q11">
-        <v>55.7424000831321</v>
+        <v>99.60884240972867</v>
       </c>
       <c r="R11">
-        <v>55.7424000831321</v>
+        <v>597.653054458372</v>
       </c>
       <c r="S11">
-        <v>0.0855995336777965</v>
+        <v>0.1446835638366363</v>
       </c>
       <c r="T11">
-        <v>0.0855995336777965</v>
+        <v>0.1731772107735562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H12">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I12">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J12">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.213520457607438</v>
+        <v>3.296849666666667</v>
       </c>
       <c r="N12">
-        <v>0.213520457607438</v>
+        <v>9.890549</v>
       </c>
       <c r="O12">
-        <v>0.004359636389396141</v>
+        <v>0.06532810080989171</v>
       </c>
       <c r="P12">
-        <v>0.004359636389396141</v>
+        <v>0.08920500662862836</v>
       </c>
       <c r="Q12">
-        <v>2.08002174536817</v>
+        <v>32.30867836177867</v>
       </c>
       <c r="R12">
-        <v>2.08002174536817</v>
+        <v>193.852070170672</v>
       </c>
       <c r="S12">
-        <v>0.003194137517897621</v>
+        <v>0.04692891328869811</v>
       </c>
       <c r="T12">
-        <v>0.003194137517897621</v>
+        <v>0.0561709850964628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H13">
+        <v>19.599728</v>
+      </c>
+      <c r="I13">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J13">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.936479666666667</v>
+      </c>
+      <c r="N13">
+        <v>17.809439</v>
+      </c>
+      <c r="O13">
+        <v>0.1176331896601106</v>
+      </c>
+      <c r="P13">
+        <v>0.1606271930958688</v>
+      </c>
+      <c r="Q13">
+        <v>58.17669337209867</v>
+      </c>
+      <c r="R13">
+        <v>349.060160232592</v>
+      </c>
+      <c r="S13">
+        <v>0.08450265182967684</v>
+      </c>
+      <c r="T13">
+        <v>0.1011444089347683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.741557172907219</v>
-      </c>
-      <c r="H13">
-        <v>9.741557172907219</v>
-      </c>
-      <c r="I13">
-        <v>0.7326614498554649</v>
-      </c>
-      <c r="J13">
-        <v>0.7326614498554649</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>40.3810403109014</v>
-      </c>
-      <c r="N13">
-        <v>40.3810403109014</v>
-      </c>
-      <c r="O13">
-        <v>0.8244954827923036</v>
-      </c>
-      <c r="P13">
-        <v>0.8244954827923036</v>
-      </c>
-      <c r="Q13">
-        <v>393.3742128901171</v>
-      </c>
-      <c r="R13">
-        <v>393.3742128901171</v>
-      </c>
-      <c r="S13">
-        <v>0.6040760558218906</v>
-      </c>
-      <c r="T13">
-        <v>0.6040760558218906</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H14">
+        <v>19.599728</v>
+      </c>
+      <c r="I14">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J14">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3593903333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.078171</v>
+      </c>
+      <c r="O14">
+        <v>0.00712143115395331</v>
+      </c>
+      <c r="P14">
+        <v>0.009724258097482241</v>
+      </c>
+      <c r="Q14">
+        <v>3.521976389581333</v>
+      </c>
+      <c r="R14">
+        <v>21.131858337488</v>
+      </c>
+      <c r="S14">
+        <v>0.00511573153010909</v>
+      </c>
+      <c r="T14">
+        <v>0.006123211883631373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H15">
+        <v>19.599728</v>
+      </c>
+      <c r="I15">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J15">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3495983333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.048795</v>
+      </c>
+      <c r="O15">
+        <v>0.006927399630587783</v>
+      </c>
+      <c r="P15">
+        <v>0.009459309582013322</v>
+      </c>
+      <c r="Q15">
+        <v>3.426016121293333</v>
+      </c>
+      <c r="R15">
+        <v>20.55609672776</v>
+      </c>
+      <c r="S15">
+        <v>0.004976347583194839</v>
+      </c>
+      <c r="T15">
+        <v>0.005956377984098223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H16">
+        <v>19.599728</v>
+      </c>
+      <c r="I16">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J16">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>40.5237085</v>
+      </c>
+      <c r="N16">
+        <v>81.047417</v>
+      </c>
+      <c r="O16">
+        <v>0.8029898787454566</v>
+      </c>
+      <c r="P16">
+        <v>0.7309842325960072</v>
+      </c>
+      <c r="Q16">
+        <v>397.126832075644</v>
+      </c>
+      <c r="R16">
+        <v>1588.507328302576</v>
+      </c>
+      <c r="S16">
+        <v>0.5768335819375583</v>
+      </c>
+      <c r="T16">
+        <v>0.4602892369689291</v>
       </c>
     </row>
   </sheetData>
